--- a/testData/SortierenZeiten.xlsx
+++ b/testData/SortierenZeiten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\2_Unterricht\21_Module\411\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76B5B0-B050-44B5-B6A6-E057EB1FC4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE4C2A-C16F-4CC8-8454-0D2040E9CDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{4F1C8940-1C8E-45F0-8DBD-465883E59B74}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{4F1C8940-1C8E-45F0-8DBD-465883E59B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Quicksort</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Heapsort</t>
   </si>
   <si>
-    <t>4. Algorithmus</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
@@ -69,12 +66,21 @@
   </si>
   <si>
     <t>Sortieren Vermögen</t>
+  </si>
+  <si>
+    <t>Shakersort</t>
+  </si>
+  <si>
+    <t>Info: Die Farben verglichen die Zahlen von beispielsweise allen "Small" Ergebnissen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,223 +526,301 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E076DA-5B3D-48D9-A426-C5536D67E7FD}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.83984375" customWidth="1"/>
-    <col min="6" max="6" width="12.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.3671875" customWidth="1"/>
-    <col min="10" max="10" width="3.83984375" customWidth="1"/>
-    <col min="11" max="11" width="19.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.83984375" customWidth="1"/>
-    <col min="15" max="15" width="3.83984375" customWidth="1"/>
-    <col min="16" max="16" width="16.1015625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.05078125" customWidth="1"/>
+    <col min="1" max="1" width="16.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.17578125" customWidth="1"/>
+    <col min="5" max="5" width="3.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.17578125" customWidth="1"/>
+    <col min="10" max="10" width="3.8203125" customWidth="1"/>
+    <col min="11" max="11" width="19.41015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.17578125" customWidth="1"/>
+    <col min="15" max="15" width="3.8203125" customWidth="1"/>
+    <col min="16" max="16" width="16.1171875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="15.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.201095999999999</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.30216899999999902</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="4">
+        <v>1.0010000000022501E-3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.15599600000000099</v>
+      </c>
+      <c r="N3" s="4"/>
       <c r="O3" s="3"/>
       <c r="P3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.15936099999999601</v>
+      </c>
+      <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="4">
+        <v>9.8000000000020293E-4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15.738101</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="4">
+        <v>1.00000000000122E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>20.287690999999999</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6.3604010000000004</v>
+      </c>
+      <c r="N4" s="4"/>
       <c r="O4" s="3"/>
       <c r="P4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>5.9824769999999896</v>
+      </c>
+      <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.9956000000001198E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>14.381157</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6.8576999999997598E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10.0391589999999</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4.68899999999976E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>15.695403000000001</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="Q5" s="4">
+        <v>1.1950000000027199E-3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>4.6088999999998402E-2</v>
+      </c>
+      <c r="S5" s="4">
+        <v>19.077572</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.0039999999988899E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.61116799999999905</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.0070000000026404E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.53233400000000497</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.6919999999961402E-3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.51723699999999395</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2.1130000000013599E-3</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.59010999999999503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -744,6 +829,234 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:D6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:I6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:N6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:S6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G6">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L5">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6 G3:G6 L3:L6 Q3:Q6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6 H3:H6 M3:M6 R3:R6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6 I3:I6 N3:N6 S3:S6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>